--- a/config/config.xlsx
+++ b/config/config.xlsx
@@ -66,7 +66,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>UAT ATeam</t>
+    <t>UAT Apollo</t>
   </si>
 </sst>
 </file>

--- a/config/config.xlsx
+++ b/config/config.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="60" windowWidth="17235" windowHeight="6030"/>
+    <workbookView xWindow="240" yWindow="90" windowWidth="17235" windowHeight="6000" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Env" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="30">
   <si>
     <t>Environment</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -34,10 +34,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Login Site</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>http://apollouat.englishtown.com/login.aspx</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -67,13 +63,84 @@
   </si>
   <si>
     <t>UAT Apollo</t>
+  </si>
+  <si>
+    <t>Browser</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Firefox</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Browser</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Chrome</t>
+  </si>
+  <si>
+    <t>Login Main Site</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Login Main Site</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Page Load Time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>60</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Implicitly Wait Time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Page Load Time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Failed Screenshot Folder</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Failed Screen Shot</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Failed Screenshot Folder</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Failed Screen Shot</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Test Result Folder</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Result</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Result</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Test Result Folder</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -104,6 +171,14 @@
       <color theme="10"/>
       <name val="宋体"/>
       <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -148,7 +223,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -165,6 +240,9 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -471,7 +549,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -498,7 +576,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C2" s="2"/>
     </row>
@@ -516,15 +594,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="19.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.25" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="48.25" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18.875" customWidth="1"/>
   </cols>
@@ -534,7 +612,7 @@
         <v>1</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>3</v>
@@ -542,51 +620,102 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="4"/>
+        <v>12</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="3"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="4"/>
+        <v>20</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="3"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="4">
+        <v>21</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="3"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A5" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="3"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A6" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" s="3"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A7" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="4"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A8" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="4"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A9" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="4">
         <v>1</v>
       </c>
-      <c r="C4" s="4"/>
+      <c r="C9" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2">
+      <formula1>"Firefox, Chrome"</formula1>
+    </dataValidation>
+  </dataValidations>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1"/>
+    <hyperlink ref="B7" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="A6" sqref="A6:XFD6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="19.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.25" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="48.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -595,7 +724,7 @@
         <v>1</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>3</v>
@@ -603,35 +732,85 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="4"/>
+        <v>14</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="3"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="4"/>
+        <v>20</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="3"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="3"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A5" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" s="3"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A6" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" s="3"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A7" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="4">
+      <c r="C7" s="4"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A8" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="4"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A9" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="4">
         <v>2</v>
       </c>
-      <c r="C4" s="4"/>
+      <c r="C9" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2">
+      <formula1>"Firefox, Chrome"</formula1>
+    </dataValidation>
+  </dataValidations>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1"/>
+    <hyperlink ref="B7" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>

--- a/config/config.xlsx
+++ b/config/config.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="32">
   <si>
     <t>Environment</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -77,9 +77,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Chrome</t>
-  </si>
-  <si>
     <t>Login Main Site</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -133,6 +130,16 @@
   </si>
   <si>
     <t>Test Result Folder</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Firefox</t>
+  </si>
+  <si>
+    <t>Smoke</t>
+  </si>
+  <si>
+    <t>Test Suite</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -550,7 +557,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -594,10 +601,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -619,86 +626,98 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A2" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C2" s="3"/>
+      <c r="A2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="2"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" s="4" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="C3" s="3"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C4" s="3"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C5" s="3"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" s="4" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C6" s="3"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A7" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" s="4"/>
+        <v>28</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" s="3"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A8" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>9</v>
+        <v>16</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>4</v>
       </c>
       <c r="C8" s="4"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A9" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="4"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A10" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="4">
+      <c r="B10" s="4">
         <v>1</v>
       </c>
-      <c r="C9" s="4"/>
+      <c r="C10" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <dataValidations count="1">
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3">
+      <formula1>"Firefox, Chrome"</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2">
-      <formula1>"Firefox, Chrome"</formula1>
+      <formula1>"Smoke, Function"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="B7" r:id="rId1"/>
+    <hyperlink ref="B8" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
@@ -707,10 +726,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:XFD6"/>
+      <selection activeCell="A2" sqref="A2:C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -731,86 +750,98 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A2" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2" s="3"/>
+      <c r="A2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="2"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" s="4" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C3" s="3"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="6" t="s">
         <v>18</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>19</v>
       </c>
       <c r="C4" s="3"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" s="4" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="C5" s="3"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" s="4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C6" s="3"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A7" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" s="4"/>
+        <v>25</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" s="3"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A8" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>10</v>
+        <v>15</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>8</v>
       </c>
       <c r="C8" s="4"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A9" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="4"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A10" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="4">
+      <c r="B10" s="4">
         <v>2</v>
       </c>
-      <c r="C9" s="4"/>
+      <c r="C10" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <dataValidations count="1">
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3">
+      <formula1>"Firefox, Chrome"</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2">
-      <formula1>"Firefox, Chrome"</formula1>
+      <formula1>"Smoke, Function"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="B7" r:id="rId1"/>
+    <hyperlink ref="B8" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>

--- a/config/config.xlsx
+++ b/config/config.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="33">
   <si>
     <t>Environment</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -81,65 +81,69 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>Page Load Time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>60</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Implicitly Wait Time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Page Load Time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Failed Screenshot Folder</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Failed Screen Shot</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Failed Screenshot Folder</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Failed Screen Shot</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Test Result Folder</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Result</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Result</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Test Result Folder</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Firefox</t>
+  </si>
+  <si>
+    <t>Smoke</t>
+  </si>
+  <si>
+    <t>Test Suite</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>Login Main Site</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Page Load Time</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>60</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Implicitly Wait Time</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Page Load Time</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Failed Screenshot Folder</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Failed Screen Shot</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Failed Screenshot Folder</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Failed Screen Shot</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Test Result Folder</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Result</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Result</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Test Result Folder</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Firefox</t>
-  </si>
-  <si>
-    <t>Smoke</t>
-  </si>
-  <si>
-    <t>Test Suite</t>
+    <t>B2B User Name</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -604,7 +608,7 @@
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -627,10 +631,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C2" s="2"/>
     </row>
@@ -639,49 +643,49 @@
         <v>12</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C3" s="3"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C4" s="3"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C5" s="3"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="6" t="s">
         <v>21</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>22</v>
       </c>
       <c r="C6" s="3"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A7" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C7" s="3"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A8" s="4" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>4</v>
@@ -690,7 +694,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A9" s="4" t="s">
-        <v>6</v>
+        <v>32</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>9</v>
@@ -751,10 +755,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C2" s="2"/>
     </row>
@@ -769,37 +773,37 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C4" s="3"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="6" t="s">
         <v>17</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>18</v>
       </c>
       <c r="C5" s="3"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="6" t="s">
         <v>23</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>24</v>
       </c>
       <c r="C6" s="3"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A7" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" s="6" t="s">
         <v>25</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>26</v>
       </c>
       <c r="C7" s="3"/>
     </row>

--- a/config/config.xlsx
+++ b/config/config.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="90" windowWidth="17235" windowHeight="6000" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="90" windowWidth="17235" windowHeight="6000" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Env" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="31">
   <si>
     <t>Environment</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -69,10 +69,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Firefox</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Browser</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -133,32 +129,32 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Firefox</t>
-  </si>
-  <si>
     <t>Smoke</t>
   </si>
   <si>
     <t>Test Suite</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Chrome</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -167,7 +163,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -176,7 +172,7 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -184,7 +180,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -254,8 +250,8 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="超链接" xfId="1" builtinId="8"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -268,7 +264,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -560,14 +556,14 @@
       <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="19" customWidth="1"/>
-    <col min="2" max="2" width="17.875" customWidth="1"/>
-    <col min="3" max="3" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.85546875" customWidth="1"/>
+    <col min="3" max="3" width="9.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -578,7 +574,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:3">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -603,18 +599,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="27.25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="48.25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.875" customWidth="1"/>
+    <col min="1" max="1" width="27.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="48.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
@@ -625,70 +621,70 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:3">
       <c r="A2" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C2" s="2"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:3">
       <c r="A3" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C3" s="3"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:3">
       <c r="A4" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="3"/>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" s="3"/>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A5" s="4" t="s">
+      <c r="B5" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="3"/>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" s="3"/>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A6" s="4" t="s">
+      <c r="B6" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B6" s="6" t="s">
-        <v>22</v>
-      </c>
       <c r="C6" s="3"/>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:3">
       <c r="A7" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C7" s="3"/>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:3">
       <c r="A8" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>4</v>
       </c>
       <c r="C8" s="4"/>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:3">
       <c r="A9" s="4" t="s">
         <v>6</v>
       </c>
@@ -697,7 +693,7 @@
       </c>
       <c r="C9" s="4"/>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:3">
       <c r="A10" s="4" t="s">
         <v>7</v>
       </c>
@@ -728,17 +724,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="27.25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="48.25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="48.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
@@ -749,70 +745,70 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:3">
       <c r="A2" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" s="2"/>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="2"/>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A3" s="4" t="s">
+      <c r="C3" s="3"/>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="3"/>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="3"/>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="3"/>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="3"/>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="4" t="s">
         <v>14</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" s="3"/>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A4" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" s="3"/>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A5" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" s="3"/>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A6" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C6" s="3"/>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A7" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C7" s="3"/>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A8" s="4" t="s">
-        <v>15</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C8" s="4"/>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:3">
       <c r="A9" s="4" t="s">
         <v>6</v>
       </c>
@@ -821,7 +817,7 @@
       </c>
       <c r="C9" s="4"/>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:3">
       <c r="A10" s="4" t="s">
         <v>7</v>
       </c>

--- a/config/config.xlsx
+++ b/config/config.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="90" windowWidth="17235" windowHeight="6000" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="90" windowWidth="17235" windowHeight="6000" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Env" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="33">
   <si>
     <t>Environment</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -137,24 +137,32 @@
   </si>
   <si>
     <t>Chrome</t>
+  </si>
+  <si>
+    <t>Log Folder</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Log</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -163,7 +171,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -172,7 +180,7 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -180,7 +188,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -250,8 +258,8 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -264,7 +272,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -556,14 +564,14 @@
       <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="19" customWidth="1"/>
-    <col min="2" max="2" width="17.85546875" customWidth="1"/>
-    <col min="3" max="3" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.875" customWidth="1"/>
+    <col min="3" max="3" width="9.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -574,7 +582,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -597,20 +605,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="27.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="48.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.85546875" customWidth="1"/>
+    <col min="1" max="1" width="27.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="48.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
@@ -621,7 +629,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>29</v>
       </c>
@@ -630,7 +638,7 @@
       </c>
       <c r="C2" s="2"/>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" s="4" t="s">
         <v>12</v>
       </c>
@@ -639,7 +647,7 @@
       </c>
       <c r="C3" s="3"/>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" s="4" t="s">
         <v>18</v>
       </c>
@@ -648,7 +656,7 @@
       </c>
       <c r="C4" s="3"/>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" s="4" t="s">
         <v>19</v>
       </c>
@@ -657,7 +665,7 @@
       </c>
       <c r="C5" s="3"/>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" s="4" t="s">
         <v>20</v>
       </c>
@@ -666,7 +674,7 @@
       </c>
       <c r="C6" s="3"/>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A7" s="4" t="s">
         <v>27</v>
       </c>
@@ -675,32 +683,41 @@
       </c>
       <c r="C7" s="3"/>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A8" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8" s="3"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A9" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B9" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="4"/>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="4" t="s">
+      <c r="C9" s="4"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A10" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B10" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="4"/>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="4" t="s">
+      <c r="C10" s="4"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A11" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="4">
+      <c r="B11" s="4">
         <v>1</v>
       </c>
-      <c r="C10" s="4"/>
+      <c r="C11" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -713,7 +730,7 @@
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="B8" r:id="rId1"/>
+    <hyperlink ref="B9" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
@@ -722,19 +739,19 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="27.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="48.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="48.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
@@ -745,7 +762,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>29</v>
       </c>
@@ -754,7 +771,7 @@
       </c>
       <c r="C2" s="2"/>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" s="4" t="s">
         <v>13</v>
       </c>
@@ -763,7 +780,7 @@
       </c>
       <c r="C3" s="3"/>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" s="4" t="s">
         <v>18</v>
       </c>
@@ -772,7 +789,7 @@
       </c>
       <c r="C4" s="3"/>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" s="4" t="s">
         <v>16</v>
       </c>
@@ -781,7 +798,7 @@
       </c>
       <c r="C5" s="3"/>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" s="4" t="s">
         <v>22</v>
       </c>
@@ -790,7 +807,7 @@
       </c>
       <c r="C6" s="3"/>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A7" s="4" t="s">
         <v>24</v>
       </c>
@@ -799,32 +816,41 @@
       </c>
       <c r="C7" s="3"/>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A8" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8" s="3"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A9" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B9" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="4"/>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="4" t="s">
+      <c r="C9" s="4"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A10" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B10" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="4"/>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="4" t="s">
+      <c r="C10" s="4"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A11" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="4">
+      <c r="B11" s="4">
         <v>2</v>
       </c>
-      <c r="C10" s="4"/>
+      <c r="C11" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -837,7 +863,7 @@
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="B8" r:id="rId1"/>
+    <hyperlink ref="B9" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
